--- a/resposta.xlsx
+++ b/resposta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salsa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07766805-5E6A-4CF6-8B1D-7068412F09EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D198BC2-FCE9-4C7A-B60A-287FFBE0D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC3B6EB-CFB0-41DD-9AC0-5468CE4D6A37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">Perguntas </t>
   </si>
@@ -40,15 +40,7 @@
 Apostas em handicap: Neste tipo de aposta, um time começa com uma vantagem ou desvantagem fictícia para equilibrar as odds entre os times. Por exemplo, se você apostar "Time A -1", isso significa que o time A precisa vencer por mais de um gol de diferença para você ganhar a aposta.</t>
   </si>
   <si>
-    <t xml:space="preserve">como apostar em futebol
-</t>
-  </si>
-  <si>
     <t>futebol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como apostar em boxe
-</t>
   </si>
   <si>
     <t>boxe</t>
@@ -132,6 +124,59 @@
   </si>
   <si>
     <t xml:space="preserve">odds </t>
+  </si>
+  <si>
+    <t>Quais sãos as promoções de hoje ?</t>
+  </si>
+  <si>
+    <t>Opa você vai adorar!!Temos a ultra aposta, aposta turbi,bingo da sorte, campo minado e muito mais !</t>
+  </si>
+  <si>
+    <t>Qual o resultado de bingo de hoje?</t>
+  </si>
+  <si>
+    <t>O resultado foi : Dona Maria, José Melo,Luis Bruno,Antonio Buono e Charle Manck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quais as regras do futebol?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quais as regras do boxe?
+</t>
+  </si>
+  <si>
+    <t>Pode me recomendar no que apostar ?</t>
+  </si>
+  <si>
+    <t>Claro !Futebol,MMA,Basquete,tênis,beisebol</t>
+  </si>
+  <si>
+    <t>Você tem apostas live?</t>
+  </si>
+  <si>
+    <t>Neste momento basquete e futebol ,segue o link!</t>
+  </si>
+  <si>
+    <t>Quais as formas de pagamento você aceita?</t>
+  </si>
+  <si>
+    <t>Pix e depósito bancario, em 10 minutos você já consegue apostar !</t>
+  </si>
+  <si>
+    <t>Qual o prazo para eu sacar meus ganhos ?</t>
+  </si>
+  <si>
+    <t>3 dias úteis</t>
+  </si>
+  <si>
+    <t>saque</t>
+  </si>
+  <si>
+    <t>Quero falar com um analista ou atendente ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claro me confirme o seu nome e e-mail </t>
   </si>
 </sst>
 </file>
@@ -486,16 +531,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF8B795-7E11-498E-90A3-204694CAB73D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="89.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,65 +551,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
